--- a/assets/files/CV14.xlsx
+++ b/assets/files/CV14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -311,12 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,1997 +626,1997 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="20" max="20" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="20" max="20" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>35.175879396984925</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>27.638190954773869</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>7.5376884422110555</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>11.055276381909549</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>18.592964824120603</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>199</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>32.804232804232804</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>31.216931216931219</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>6.8783068783068781</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>9.5238095238095237</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="4">
         <v>19.576719576719576</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="5">
         <v>189</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="4">
         <v>34.020618556701031</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="4">
         <v>29.381443298969071</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="4">
         <v>7.2164948453608249</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="4">
         <v>10.309278350515465</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="4">
         <v>19.072164948453608</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="5">
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>40.562248995983936</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>30.522088353413654</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>10.843373493975903</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>16.867469879518072</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>1.2048192771084338</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>249</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>39.344262295081968</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>33.606557377049178</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>14.754098360655737</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>12.295081967213115</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4">
         <v>0</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>122</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <v>40.161725067385447</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>31.536388140161726</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>12.129380053908356</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>15.363881401617251</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="4">
         <v>0.80862533692722371</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="5">
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>34.157303370786515</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>25.393258426966291</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>7.6404494382022472</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>20.224719101123597</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>12.584269662921349</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>445</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>32.780082987551864</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>29.045643153526971</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>6.6390041493775938</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>18.257261410788381</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="4">
         <v>13.278008298755188</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="5">
         <v>241</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <v>33.673469387755105</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="4">
         <v>26.676384839650147</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>7.2886297376093294</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>19.533527696793001</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="4">
         <v>12.827988338192419</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="5">
         <v>686</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>45.569620253164558</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>29.11392405063291</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>18.9873417721519</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>1.2658227848101267</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <v>5.0632911392405067</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>79</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>55.39568345323741</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>12.589928057553957</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>25.53956834532374</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>2.5179856115107913</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="4">
         <v>3.9568345323741005</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="5">
         <v>278</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <v>53.221288515406165</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <v>16.246498599439775</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <v>24.089635854341736</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <v>2.2408963585434174</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="4">
         <v>4.2016806722689077</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>37.837837837837839</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>24.324324324324323</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>16.216216216216218</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>5.9459459459459456</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>15.675675675675675</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>185</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>42.592592592592595</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>25</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>15.74074074074074</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>10.185185185185185</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>6.4814814814814818</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>108</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="4">
         <v>39.590443686006829</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="4">
         <v>24.573378839590443</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="4">
         <v>16.040955631399317</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="4">
         <v>7.5085324232081909</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="4">
         <v>12.286689419795222</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="5">
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>18.974358974358974</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>11.794871794871796</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>31.794871794871796</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>2.0512820512820511</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>35.384615384615387</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>195</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>23.004694835680752</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>3.755868544600939</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>35.2112676056338</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>0.93896713615023475</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>37.089201877934272</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>21.078431372549019</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>7.5980392156862742</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>33.578431372549019</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>1.4705882352941178</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>36.274509803921568</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="5">
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>25.581395348837209</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>13.953488372093023</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>11.627906976744185</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>48.837209302325583</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>43</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>34.250764525993887</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>12.538226299694189</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>8.5626911314984717</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>12.844036697247706</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4">
         <v>31.804281345565748</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <v>327</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <v>33.243243243243242</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="4">
         <v>12.702702702702704</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="4">
         <v>7.5675675675675675</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="4">
         <v>12.702702702702704</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="4">
         <v>33.783783783783782</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="5">
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>22.357723577235774</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>21.13821138211382</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>6.9105691056910565</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>27.642276422764226</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>21.951219512195124</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>246</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>33.093525179856115</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>28.776978417266186</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>9.3525179856115113</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>15.827338129496402</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>12.949640287769784</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="5">
         <v>139</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>26.233766233766232</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>23.896103896103895</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>7.7922077922077921</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>23.376623376623378</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>18.7012987012987</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="5">
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>44.827586206896555</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>43.678160919540232</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>3.4482758620689653</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>6.8965517241379306</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>1.1494252873563218</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>38.571428571428569</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>37.5</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>7.5</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>5.3571428571428568</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>11.071428571428571</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="5">
         <v>280</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="4">
         <v>40.054495912806537</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="4">
         <v>38.96457765667575</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="4">
         <v>6.5395095367847409</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="4">
         <v>5.7220708446866482</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="4">
         <v>8.7193460490463224</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="5">
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>25.5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>5</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>41</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>18.5</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <v>10</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>200</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>35.911602209944753</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>26.519337016574585</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>20.441988950276244</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>16.574585635359117</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="4">
         <v>0.5524861878453039</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="5">
         <v>181</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <v>30.446194225721786</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="4">
         <v>15.223097112860893</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <v>31.233595800524935</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="4">
         <v>17.58530183727034</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="4">
         <v>5.5118110236220472</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>33.628318584070797</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>33.185840707964601</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>1.3274336283185841</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>21.681415929203538</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <v>10.176991150442477</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>226</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>43.506493506493506</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>28.571428571428573</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
         <v>7.7922077922077921</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <v>15.584415584415584</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="4">
         <v>4.5454545454545459</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="5">
         <v>154</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <v>37.631578947368418</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <v>31.315789473684209</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <v>3.9473684210526314</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <v>19.210526315789473</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="4">
         <v>7.8947368421052628</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>43.722943722943725</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>20.779220779220779</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>10.38961038961039</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>7.7922077922077921</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>17.316017316017316</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>231</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>40</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>30</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>10</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>9.0909090909090917</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4">
         <v>10.909090909090908</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>110</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <v>42.521994134897362</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <v>23.75366568914956</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <v>10.263929618768328</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="4">
         <v>8.2111436950146626</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="4">
         <v>15.249266862170089</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="5">
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>35.245901639344261</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>21.311475409836067</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>17.21311475409836</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>7.3770491803278686</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>18.852459016393443</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>122</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>28.8</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>21.6</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>14</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>10.4</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>25.2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>250</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <v>30.913978494623656</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="4">
         <v>21.50537634408602</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="4">
         <v>15.053763440860216</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="4">
         <v>9.408602150537634</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="4">
         <v>23.118279569892472</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="5">
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>6.25</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>20.833333333333332</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>6.25</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="4">
         <v>25</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="4">
         <v>41.666666666666664</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>48</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>14.626865671641792</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>37.611940298507463</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>5.0746268656716422</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <v>33.432835820895519</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="4">
         <v>9.2537313432835813</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="5">
         <v>335</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="4">
         <v>13.577023498694517</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="4">
         <v>35.509138381201048</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="4">
         <v>5.2219321148825069</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="4">
         <v>32.375979112271537</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="4">
         <v>13.315926892950392</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>40.666666666666664</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>4.666666666666667</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>48</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>0</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>150</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>44.067796610169495</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>5.9322033898305087</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>30.084745762711865</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="4">
         <v>0.84745762711864403</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="4">
         <v>19.067796610169491</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="5">
         <v>236</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <v>42.746113989637308</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <v>5.4404145077720205</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="4">
         <v>37.046632124352328</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="4">
         <v>0.51813471502590669</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="4">
         <v>14.248704663212436</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="5">
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <v>0</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="4">
         <v>0</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <v>0</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="4">
         <v>27.296587926509186</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>16.535433070866141</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>18.372703412073491</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>20.472440944881889</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="4">
         <v>17.322834645669293</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>381</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <v>27.296587926509186</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <v>16.535433070866141</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <v>18.372703412073491</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <v>20.472440944881889</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="4">
         <v>17.322834645669293</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>35.897435897435898</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>10.256410256410257</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>10.256410256410257</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>15.384615384615385</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <v>28.205128205128204</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>39</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>28.94736842105263</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>33.918128654970758</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <v>1.1695906432748537</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <v>14.327485380116959</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="4">
         <v>21.637426900584796</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>342</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <v>29.658792650918635</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>31.496062992125985</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <v>2.0997375328083989</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>14.435695538057743</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <v>22.309711286089239</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>23.563218390804597</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>20.114942528735632</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>13.218390804597702</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>35.632183908045974</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="4">
         <v>7.4712643678160919</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>174</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>36.612021857923494</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>23.497267759562842</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="4">
         <v>27.868852459016395</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="4">
         <v>5.4644808743169397</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="4">
         <v>6.557377049180328</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="5">
         <v>183</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="4">
         <v>30.252100840336134</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="4">
         <v>21.84873949579832</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="4">
         <v>20.728291316526612</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="4">
         <v>20.168067226890756</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="4">
         <v>7.0028011204481793</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>51.515151515151516</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>9.0909090909090917</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>6.0606060606060606</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>27.272727272727273</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="4">
         <v>6.0606060606060606</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>33</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>38.043478260869563</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>20.108695652173914</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>29.347826086956523</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <v>5.9782608695652177</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <v>6.5217391304347823</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>368</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="4">
         <v>39.152119700748131</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="4">
         <v>19.201995012468828</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="4">
         <v>27.431421446384039</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="4">
         <v>7.7306733167082298</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="4">
         <v>6.4837905236907734</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="5">
         <v>401</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>36.453201970443352</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>20.19704433497537</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>18.226600985221676</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>7.8817733990147785</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>17.241379310344829</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>203</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>43.888888888888886</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>21.666666666666668</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <v>17.222222222222221</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="4">
         <v>7.2222222222222223</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="4">
         <v>10</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <v>180</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="4">
         <v>39.947780678851174</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="4">
         <v>20.887728459530027</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="4">
         <v>17.754569190600524</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="4">
         <v>7.5718015665796345</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="4">
         <v>13.838120104438643</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>35.838150289017342</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>16.184971098265898</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>13.294797687861271</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>5.7803468208092488</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="4">
         <v>28.901734104046241</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>173</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>36.585365853658537</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>26.341463414634145</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <v>14.634146341463415</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="4">
         <v>5.3658536585365857</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>17.073170731707318</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>205</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="4">
         <v>36.24338624338624</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="4">
         <v>21.693121693121693</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <v>14.02116402116402</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="4">
         <v>5.5555555555555554</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <v>22.486772486772487</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="5">
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>31.914893617021278</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>26.063829787234042</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>14.361702127659575</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>12.23404255319149</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="4">
         <v>15.425531914893616</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>188</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="4">
         <v>41.53846153846154</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>24.102564102564102</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <v>9.2307692307692299</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <v>14.358974358974359</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <v>10.76923076923077</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <v>195</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <v>36.814621409921671</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <v>25.065274151436032</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <v>11.74934725848564</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="4">
         <v>13.315926892950392</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="4">
         <v>13.054830287206267</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>14.375</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>1.875</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>2.5</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>4.0625</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <v>77.1875</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>320</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="4">
         <v>22.580645161290324</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="4">
         <v>9.67741935483871</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <v>12.903225806451612</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="4">
         <v>8.064516129032258</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="4">
         <v>46.774193548387096</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="5">
         <v>62</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="4">
         <v>15.706806282722512</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="4">
         <v>3.1413612565445028</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <v>4.1884816753926701</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="4">
         <v>4.7120418848167542</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="4">
         <v>72.251308900523554</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="5">
         <v>382</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>35.449735449735449</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>21.164021164021165</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>23.280423280423282</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>6.3492063492063489</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>13.756613756613756</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>189</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="4">
         <v>47.395833333333336</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="4">
         <v>14.0625</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <v>22.916666666666668</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="4">
         <v>5.729166666666667</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="4">
         <v>9.8958333333333339</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>192</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="4">
         <v>41.469816272965879</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="4">
         <v>17.58530183727034</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="4">
         <v>23.097112860892388</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="4">
         <v>6.0367454068241466</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="4">
         <v>11.811023622047244</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>32.118055555555557</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>25.347222222222221</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>22.395833333333332</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>10.590277777777779</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>9.5486111111111107</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>576</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="4">
         <v>21.967455621301774</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="4">
         <v>21.449704142011836</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <v>16.789940828402369</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="4">
         <v>17.45562130177515</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="4">
         <v>22.337278106508876</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>1352</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="4">
         <v>25</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="4">
         <v>22.614107883817429</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>18.46473029045643</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="4">
         <v>15.404564315352697</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="4">
         <v>18.516597510373444</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="5">
         <v>1928</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>62.857142857142854</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>30</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>4.2857142857142856</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>2.8571428571428572</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="4">
         <v>0</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="5">
         <v>140</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="4">
         <v>63.3147113594041</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="4">
         <v>18.994413407821231</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <v>8.3798882681564244</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="4">
         <v>2.9795158286778398</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="4">
         <v>6.3314711359404097</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="5">
         <v>537</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="4">
         <v>63.220088626292466</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="4">
         <v>21.270310192023633</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="4">
         <v>7.5332348596750371</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="4">
         <v>2.9542097488921715</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="4">
         <v>5.0221565731166917</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="5">
         <v>677</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>40.601503759398497</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>24.060150375939848</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>16.541353383458645</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>5.2631578947368425</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>13.533834586466165</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>133</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="4">
         <v>36.898395721925134</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="4">
         <v>17.112299465240643</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <v>23.529411764705884</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="4">
         <v>5.882352941176471</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <v>16.577540106951872</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>187</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="4">
         <v>38.4375</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <v>20</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <v>20.625</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="4">
         <v>5.625</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="4">
         <v>15.3125</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="5">
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>28.632478632478634</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>29.05982905982906</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>8.5470085470085468</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>13.247863247863247</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <v>20.512820512820515</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>234</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="4">
         <v>21.487603305785125</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4">
         <v>22.314049586776861</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <v>18.181818181818183</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="4">
         <v>10.743801652892563</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="4">
         <v>27.272727272727273</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="5">
         <v>121</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="4">
         <v>26.197183098591548</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="4">
         <v>26.760563380281692</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="4">
         <v>11.830985915492958</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="4">
         <v>12.394366197183098</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="4">
         <v>22.816901408450704</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="5">
         <v>355</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>37.41935483870968</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>15.483870967741936</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>34.193548387096776</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>2.5806451612903225</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="4">
         <v>10.32258064516129</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <v>155</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="4">
         <v>50.862068965517238</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="4">
         <v>16.379310344827587</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>17.241379310344829</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="4">
         <v>4.3103448275862073</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <v>11.206896551724139</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>232</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="4">
         <v>45.478036175710592</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <v>16.020671834625322</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="4">
         <v>24.031007751937985</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="4">
         <v>3.6175710594315245</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="4">
         <v>10.852713178294573</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="5">
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>31.531531531531531</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>30.63063063063063</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>27.927927927927929</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>7.2072072072072073</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="4">
         <v>2.7027027027027026</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <v>111</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>36.029411764705884</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>31.617647058823529</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>6.617647058823529</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="4">
         <v>14.705882352941176</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <v>11.029411764705882</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>272</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="4">
         <v>34.725848563968668</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <v>31.331592689295039</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="4">
         <v>12.793733681462141</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="4">
         <v>12.532637075718016</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="4">
         <v>8.6161879895561366</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>26.666666666666668</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="4">
         <v>26.666666666666668</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="5">
         <v>15</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>37.222222222222221</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="4">
         <v>25</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <v>12.5</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="4">
         <v>8.6111111111111107</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <v>16.666666666666668</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>360</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="4">
         <v>36.799999999999997</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <v>24.266666666666666</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <v>13.333333333333334</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="4">
         <v>8.5333333333333332</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <v>17.066666666666666</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="5">
         <v>375</v>
       </c>
     </row>
